--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H2">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I2">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J2">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N2">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O2">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P2">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q2">
-        <v>265.5810677696443</v>
+        <v>221.9695254942393</v>
       </c>
       <c r="R2">
-        <v>2390.229609926799</v>
+        <v>1997.725729448154</v>
       </c>
       <c r="S2">
-        <v>0.01588522472933548</v>
+        <v>0.0105288136603617</v>
       </c>
       <c r="T2">
-        <v>0.01721458583699879</v>
+        <v>0.01131524442762557</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H3">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I3">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J3">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O3">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P3">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q3">
-        <v>444.7431342580853</v>
+        <v>396.3838138428337</v>
       </c>
       <c r="R3">
-        <v>4002.688208322767</v>
+        <v>3567.454324585503</v>
       </c>
       <c r="S3">
-        <v>0.02660146182048829</v>
+        <v>0.01880191122921965</v>
       </c>
       <c r="T3">
-        <v>0.02882761532814639</v>
+        <v>0.02020628611427337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H4">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I4">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J4">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N4">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O4">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P4">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q4">
-        <v>491.6280810845257</v>
+        <v>594.3351113277851</v>
       </c>
       <c r="R4">
-        <v>4424.652729760731</v>
+        <v>5349.016001950065</v>
       </c>
       <c r="S4">
-        <v>0.02940579543890324</v>
+        <v>0.0281914538720901</v>
       </c>
       <c r="T4">
-        <v>0.03186663067809195</v>
+        <v>0.03029716372830862</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H5">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I5">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J5">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N5">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O5">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P5">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q5">
-        <v>247.2993980852965</v>
+        <v>210.9070041219656</v>
       </c>
       <c r="R5">
-        <v>1483.796388511779</v>
+        <v>1265.442024731794</v>
       </c>
       <c r="S5">
-        <v>0.01479174154620725</v>
+        <v>0.0100040784478</v>
       </c>
       <c r="T5">
-        <v>0.01068639606361795</v>
+        <v>0.00716754337582919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.052091</v>
+        <v>12.52413133333333</v>
       </c>
       <c r="H6">
-        <v>42.156273</v>
+        <v>37.572394</v>
       </c>
       <c r="I6">
-        <v>0.118199646824064</v>
+        <v>0.09718402715578596</v>
       </c>
       <c r="J6">
-        <v>0.1227480314487644</v>
+        <v>0.1008592412859651</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N6">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O6">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P6">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q6">
-        <v>526.8984172998563</v>
+        <v>625.248136642831</v>
       </c>
       <c r="R6">
-        <v>4742.085755698707</v>
+        <v>5627.233229785479</v>
       </c>
       <c r="S6">
-        <v>0.03151542328912978</v>
+        <v>0.02965776994631449</v>
       </c>
       <c r="T6">
-        <v>0.03415280354190937</v>
+        <v>0.03187300363992839</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J7">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N7">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O7">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P7">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q7">
-        <v>448.6954892741795</v>
+        <v>420.7666255066346</v>
       </c>
       <c r="R7">
-        <v>4038.259403467616</v>
+        <v>3786.899629559712</v>
       </c>
       <c r="S7">
-        <v>0.02683786439303623</v>
+        <v>0.019958475761906</v>
       </c>
       <c r="T7">
-        <v>0.02908380134040334</v>
+        <v>0.02144923815101963</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J8">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O8">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P8">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q8">
         <v>751.3872878933901</v>
@@ -948,10 +948,10 @@
         <v>6762.485591040511</v>
       </c>
       <c r="S8">
-        <v>0.04494279666540549</v>
+        <v>0.03564100397736522</v>
       </c>
       <c r="T8">
-        <v>0.04870385179522545</v>
+        <v>0.03830314455731459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J9">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N9">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O9">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P9">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q9">
-        <v>830.5987480044338</v>
+        <v>1126.624831299161</v>
       </c>
       <c r="R9">
-        <v>7475.388732039904</v>
+        <v>10139.62348169245</v>
       </c>
       <c r="S9">
-        <v>0.04968067898348594</v>
+        <v>0.05343987147547941</v>
       </c>
       <c r="T9">
-        <v>0.0538382256073614</v>
+        <v>0.05743146639610794</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J10">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N10">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O10">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P10">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q10">
-        <v>417.8088647393227</v>
+        <v>399.7964505376053</v>
       </c>
       <c r="R10">
-        <v>2506.853188435936</v>
+        <v>2398.778703225632</v>
       </c>
       <c r="S10">
-        <v>0.02499043989102929</v>
+        <v>0.01896378487277392</v>
       </c>
       <c r="T10">
-        <v>0.0180545162748637</v>
+        <v>0.01358683374533028</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1996966455822818</v>
+        <v>0.1842225641940495</v>
       </c>
       <c r="J11">
-        <v>0.2073810776155066</v>
+        <v>0.1911893198517306</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N11">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O11">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P11">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q11">
-        <v>890.187486380654</v>
+        <v>1185.223728229049</v>
       </c>
       <c r="R11">
-        <v>8011.687377425887</v>
+        <v>10667.01355406144</v>
       </c>
       <c r="S11">
-        <v>0.05324486564932489</v>
+        <v>0.05621942810652489</v>
       </c>
       <c r="T11">
-        <v>0.05770068259765278</v>
+        <v>0.0604186370019582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H12">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I12">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J12">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N12">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O12">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P12">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q12">
-        <v>622.9296029085555</v>
+        <v>726.9856288043453</v>
       </c>
       <c r="R12">
-        <v>5606.366426177</v>
+        <v>6542.870659239108</v>
       </c>
       <c r="S12">
-        <v>0.03725934538880995</v>
+        <v>0.03448354544345088</v>
       </c>
       <c r="T12">
-        <v>0.04037740795958417</v>
+        <v>0.03705923174352926</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H13">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I13">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J13">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O13">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P13">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q13">
-        <v>1043.160441918222</v>
+        <v>1298.220264753756</v>
       </c>
       <c r="R13">
-        <v>9388.443977263998</v>
+        <v>11683.98238278381</v>
       </c>
       <c r="S13">
-        <v>0.06239465104868407</v>
+        <v>0.06157926060914371</v>
       </c>
       <c r="T13">
-        <v>0.06761617128800232</v>
+        <v>0.06617881253688931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H14">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I14">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J14">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N14">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O14">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P14">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q14">
-        <v>1153.130710334778</v>
+        <v>1946.542362817926</v>
       </c>
       <c r="R14">
-        <v>10378.176393013</v>
+        <v>17518.88126536133</v>
       </c>
       <c r="S14">
-        <v>0.06897231278493982</v>
+        <v>0.0923315116094259</v>
       </c>
       <c r="T14">
-        <v>0.07474428716264965</v>
+        <v>0.0992280475212543</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H15">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I15">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J15">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N15">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O15">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P15">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q15">
-        <v>580.0493127861666</v>
+        <v>690.7541054090647</v>
       </c>
       <c r="R15">
-        <v>3480.295876717</v>
+        <v>4144.524632454388</v>
       </c>
       <c r="S15">
-        <v>0.03469454266859471</v>
+        <v>0.03276495385926585</v>
       </c>
       <c r="T15">
-        <v>0.02506531249511738</v>
+        <v>0.02347484870482744</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>32.95966666666666</v>
+        <v>41.01852933333333</v>
       </c>
       <c r="H16">
-        <v>98.87899999999999</v>
+        <v>123.055588</v>
       </c>
       <c r="I16">
-        <v>0.2772413699455032</v>
+        <v>0.3182932023406124</v>
       </c>
       <c r="J16">
-        <v>0.2879097637882357</v>
+        <v>0.3303301152883236</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N16">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O16">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P16">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q16">
-        <v>1235.858506851222</v>
+        <v>2047.787455345218</v>
       </c>
       <c r="R16">
-        <v>11122.726561661</v>
+        <v>18430.08709810696</v>
       </c>
       <c r="S16">
-        <v>0.07392051805447469</v>
+        <v>0.09713393081932596</v>
       </c>
       <c r="T16">
-        <v>0.08010658488288225</v>
+        <v>0.1043891747818233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H17">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I17">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J17">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N17">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O17">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P17">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q17">
-        <v>249.7726234042112</v>
+        <v>249.681674062269</v>
       </c>
       <c r="R17">
-        <v>1498.635740425267</v>
+        <v>1498.090044373614</v>
       </c>
       <c r="S17">
-        <v>0.014939672798714</v>
+        <v>0.01184330062766666</v>
       </c>
       <c r="T17">
-        <v>0.01079327002092283</v>
+        <v>0.00848527642048363</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H18">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I18">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J18">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O18">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P18">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q18">
-        <v>418.2702491466906</v>
+        <v>445.870999593744</v>
       </c>
       <c r="R18">
-        <v>2509.621494880144</v>
+        <v>2675.225997562464</v>
       </c>
       <c r="S18">
-        <v>0.02501803671884236</v>
+        <v>0.02114926659787617</v>
       </c>
       <c r="T18">
-        <v>0.01807445379413341</v>
+        <v>0.01515264864207344</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H19">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I19">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J19">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N19">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O19">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P19">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q19">
-        <v>462.3644169477039</v>
+        <v>668.5358506754011</v>
       </c>
       <c r="R19">
-        <v>2774.186501686223</v>
+        <v>4011.215104052406</v>
       </c>
       <c r="S19">
-        <v>0.02765544521582027</v>
+        <v>0.03171106205394564</v>
       </c>
       <c r="T19">
-        <v>0.01997986781804758</v>
+        <v>0.02271977513483512</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H20">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I20">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J20">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N20">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O20">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P20">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q20">
-        <v>232.5791516119018</v>
+        <v>237.2380341102135</v>
       </c>
       <c r="R20">
-        <v>930.3166064476071</v>
+        <v>948.9521364408541</v>
       </c>
       <c r="S20">
-        <v>0.01391127809576318</v>
+        <v>0.01125305398898912</v>
       </c>
       <c r="T20">
-        <v>0.006700199433044514</v>
+        <v>0.00537492470345861</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2156545</v>
+        <v>14.087727</v>
       </c>
       <c r="H21">
-        <v>26.431309</v>
+        <v>28.175454</v>
       </c>
       <c r="I21">
-        <v>0.1111639324317536</v>
+        <v>0.1093171260259301</v>
       </c>
       <c r="J21">
-        <v>0.07696105270890552</v>
+        <v>0.07563411885139956</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N21">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O21">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P21">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q21">
-        <v>495.5353220835051</v>
+        <v>703.3082632117801</v>
       </c>
       <c r="R21">
-        <v>2973.211932501031</v>
+        <v>4219.84957927068</v>
       </c>
       <c r="S21">
-        <v>0.02963949960261379</v>
+        <v>0.03336044275745245</v>
       </c>
       <c r="T21">
-        <v>0.0214132616427572</v>
+        <v>0.02390149395054877</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H22">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I22">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J22">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.89975433333333</v>
+        <v>17.723347</v>
       </c>
       <c r="N22">
-        <v>56.699263</v>
+        <v>53.170041</v>
       </c>
       <c r="O22">
-        <v>0.1343931657679153</v>
+        <v>0.1083389314942055</v>
       </c>
       <c r="P22">
-        <v>0.1402432742408926</v>
+        <v>0.1121884745845309</v>
       </c>
       <c r="Q22">
-        <v>659.906676165571</v>
+        <v>664.6089707094668</v>
       </c>
       <c r="R22">
-        <v>5939.160085490139</v>
+        <v>5981.4807363852</v>
       </c>
       <c r="S22">
-        <v>0.03947105845801965</v>
+        <v>0.03152479600082024</v>
       </c>
       <c r="T22">
-        <v>0.04277420908298352</v>
+        <v>0.03387948384187283</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H23">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I23">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J23">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>94.94881599999999</v>
       </c>
       <c r="O23">
-        <v>0.2250553409866243</v>
+        <v>0.193467093096278</v>
       </c>
       <c r="P23">
-        <v>0.2348519563849719</v>
+        <v>0.2003414447366573</v>
       </c>
       <c r="Q23">
-        <v>1105.082398909072</v>
+        <v>1186.830660368356</v>
       </c>
       <c r="R23">
-        <v>9945.741590181648</v>
+        <v>10681.4759433152</v>
       </c>
       <c r="S23">
-        <v>0.06609839473320406</v>
+        <v>0.05629565068267329</v>
       </c>
       <c r="T23">
-        <v>0.07162986417946439</v>
+        <v>0.0605005528861066</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H24">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I24">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J24">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.98611566666667</v>
+        <v>47.45519633333333</v>
       </c>
       <c r="N24">
-        <v>104.958347</v>
+        <v>142.365589</v>
       </c>
       <c r="O24">
-        <v>0.2487807385979141</v>
+        <v>0.2900832029413559</v>
       </c>
       <c r="P24">
-        <v>0.259610115958505</v>
+        <v>0.3003905575931054</v>
       </c>
       <c r="Q24">
-        <v>1221.580497520799</v>
+        <v>1779.525570983423</v>
       </c>
       <c r="R24">
-        <v>10994.22447768719</v>
+        <v>16015.7301388508</v>
       </c>
       <c r="S24">
-        <v>0.07306650617476479</v>
+        <v>0.08440930393041483</v>
       </c>
       <c r="T24">
-        <v>0.0791811046923544</v>
+        <v>0.09071410481259941</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H25">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I25">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J25">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.5987615</v>
+        <v>16.8400505</v>
       </c>
       <c r="N25">
-        <v>35.197523</v>
+        <v>33.680101</v>
       </c>
       <c r="O25">
-        <v>0.1251420113650951</v>
+        <v>0.102939533795646</v>
       </c>
       <c r="P25">
-        <v>0.08705961258595418</v>
+        <v>0.07106481552351887</v>
       </c>
       <c r="Q25">
-        <v>614.4810139469865</v>
+        <v>631.4861763695334</v>
       </c>
       <c r="R25">
-        <v>3686.886083681919</v>
+        <v>3788.9170582172</v>
       </c>
       <c r="S25">
-        <v>0.03675400916350072</v>
+        <v>0.0299536626268171</v>
       </c>
       <c r="T25">
-        <v>0.02655318831931063</v>
+        <v>0.02146066499407335</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.916151</v>
+        <v>37.49906666666667</v>
       </c>
       <c r="H26">
-        <v>104.748453</v>
+        <v>112.4972</v>
       </c>
       <c r="I26">
-        <v>0.2936984052163973</v>
+        <v>0.2909830802836222</v>
       </c>
       <c r="J26">
-        <v>0.3050000744385877</v>
+        <v>0.3019872047225811</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.49608633333333</v>
+        <v>49.92347333333333</v>
       </c>
       <c r="N26">
-        <v>112.488259</v>
+        <v>149.77042</v>
       </c>
       <c r="O26">
-        <v>0.2666287432824513</v>
+        <v>0.3051712386725145</v>
       </c>
       <c r="P26">
-        <v>0.2782350408296764</v>
+        <v>0.3160147075621876</v>
       </c>
       <c r="Q26">
-        <v>1309.219012323703</v>
+        <v>1872.083654758223</v>
       </c>
       <c r="R26">
-        <v>11782.97111091333</v>
+        <v>16848.752892824</v>
       </c>
       <c r="S26">
-        <v>0.07830843668690818</v>
+        <v>0.08879966704289673</v>
       </c>
       <c r="T26">
-        <v>0.08486170816447478</v>
+        <v>0.09543239818792894</v>
       </c>
     </row>
   </sheetData>
